--- a/biology/Botanique/Papaver_californicum/Papaver_californicum.xlsx
+++ b/biology/Botanique/Papaver_californicum/Papaver_californicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Papaver californicum, littéralement « pavot de Californie », est une espèce de plantes dicotylédones de la famille des Papaveraceae, famille des Papaveroideae, endémique de Californie. 
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Papaver californicum est une plante herbacée annuelle, dont la tige poilue ou glabre, peut dépasser 50 cm de haut. La fleur a quatre pétales de couleur orange, verte à la base. Ce caractère la distingue  de l'espèce proche, Stylomecon heterophylla, qui a des pétales pourpres à la base[2]. 
-Papaver californicum est une espèce tétraploïde qui possède 28 chromosomes (2n = 4x = 28)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaver californicum est une plante herbacée annuelle, dont la tige poilue ou glabre, peut dépasser 50 cm de haut. La fleur a quatre pétales de couleur orange, verte à la base. Ce caractère la distingue  de l'espèce proche, Stylomecon heterophylla, qui a des pétales pourpres à la base. 
+Papaver californicum est une espèce tétraploïde qui possède 28 chromosomes (2n = 4x = 28).
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Papaver californicum est une espèce endémique de Californie, où elle se rencontre dans les comtés côtiers situés au sud de la baie de San Francisco, du comté de Napa au comté de San Diego[4],[5]. Selon Plants of the World Online, l'aire de répartition de cette espèce incluerait aussi le Nord-Ouest du Mexique et la Basse-Californie[6].
-Cette plante pousse dans le chaparral, les bois et les milieux ouverts et autres habitats perturbés, souvent dans des endroits qui ont récemment brûlé[4], jusqu'à une altitude de 800 mètres environ.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaver californicum est une espèce endémique de Californie, où elle se rencontre dans les comtés côtiers situés au sud de la baie de San Francisco, du comté de Napa au comté de San Diego,. Selon Plants of the World Online, l'aire de répartition de cette espèce incluerait aussi le Nord-Ouest du Mexique et la Basse-Californie.
+Cette plante pousse dans le chaparral, les bois et les milieux ouverts et autres habitats perturbés, souvent dans des endroits qui ont récemment brûlé, jusqu'à une altitude de 800 mètres environ.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs ne durent que quelques jours au maximum. Les graines, une fois dispersées, peuvent rester dormantes pendant des années. La fumée agit comme un déclencheur pour leur germination[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs ne durent que quelques jours au maximum. Les graines, une fois dispersées, peuvent rester dormantes pendant des années. La fumée agit comme un déclencheur pour leur germination.
 </t>
         </is>
       </c>
@@ -609,11 +627,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Papaver californicum est l'unique espèce de la section Papaver sect. Californicum[8].
-Synonyme
-Selon The Plant List            (1 octobre 2020)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaver californicum est l'unique espèce de la section Papaver sect. Californicum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Papaver_californicum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Papaver_californicum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 octobre 2020) :
 Papaver lemmonii Greene</t>
         </is>
       </c>
